--- a/CompiladoResultadosFinaisl.xlsx
+++ b/CompiladoResultadosFinaisl.xlsx
@@ -8,19 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Proj1Numerico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FC2F1B-5AF8-4A61-8020-CF6DE9A2ADFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCB652F-6A4A-49A1-AADA-DBA503E1DB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equação 1" sheetId="1" r:id="rId1"/>
     <sheet name="Equação 2" sheetId="2" r:id="rId2"/>
     <sheet name="Equação 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,9 +199,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +482,7 @@
   <dimension ref="A1:AG58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +500,7 @@
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
     <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -589,15 +592,23 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="2">
         <v>1</v>
       </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="2">
         <v>1</v>
       </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -621,15 +632,35 @@
       <c r="B4" s="2">
         <v>0.5</v>
       </c>
+      <c r="C4" s="15">
+        <f>LOG10(ABS(B5-D$2)/ABS(B4-D$2))/LOG10(ABS(B4-D$2)/ABS(B3-D$2))</f>
+        <v>35.327179654052593</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="2">
         <v>2</v>
       </c>
+      <c r="F4" s="15">
+        <f>LOG10(ABS(E5-G$2)/ABS(E4-G$2))/LOG10(ABS(E4-G$2)/ABS(E3-G$2))</f>
+        <v>-3.9407044967344071</v>
+      </c>
+      <c r="G4" s="15"/>
       <c r="H4" s="2">
         <v>0.750363867840243</v>
       </c>
+      <c r="I4" s="15">
+        <f>LOG10(ABS(H5-J$2)/ABS(H4-J$2))/LOG10(ABS(H4-J$2)/ABS(H3-J$2))</f>
+        <v>1.9123320892035705</v>
+      </c>
+      <c r="J4" s="15"/>
       <c r="K4" s="2">
         <v>0.74087399508034302</v>
       </c>
+      <c r="L4" s="15">
+        <f>LOG10(ABS(K5-M$2)/ABS(K4-M$2))/LOG10(ABS(K4-M$2)/ABS(K3-M$2))</f>
+        <v>2.9721231406169957</v>
+      </c>
+      <c r="M4" s="15"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -653,15 +684,35 @@
       <c r="B5" s="2">
         <v>0.75</v>
       </c>
+      <c r="C5" s="15">
+        <f t="shared" ref="C5:C53" si="0">LOG10(ABS(B6-D$2)/ABS(B5-D$2))/LOG10(ABS(B5-D$2)/ABS(B4-D$2))</f>
+        <v>-0.76030187511553582</v>
+      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="2">
         <v>0.58545492793321796</v>
       </c>
+      <c r="F5" s="15">
+        <f t="shared" ref="F5:F11" si="1">LOG10(ABS(E6-G$2)/ABS(E5-G$2))/LOG10(ABS(E5-G$2)/ABS(E4-G$2))</f>
+        <v>0.92433644951085425</v>
+      </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="2">
         <v>0.73911289091136101</v>
       </c>
+      <c r="I5" s="15">
+        <f t="shared" ref="I5:I8" si="2">LOG10(ABS(H6-J$2)/ABS(H5-J$2))/LOG10(ABS(H5-J$2)/ABS(H4-J$2))</f>
+        <v>1.998031277906354</v>
+      </c>
+      <c r="J5" s="15"/>
       <c r="K5" s="2">
         <v>0.73908513387758101</v>
       </c>
+      <c r="L5" s="15" t="e">
+        <f t="shared" ref="L5:L6" si="3">LOG10(ABS(K6-M$2)/ABS(K5-M$2))/LOG10(ABS(K5-M$2)/ABS(K4-M$2))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M5" s="15"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -685,15 +736,35 @@
       <c r="B6" s="2">
         <v>0.625</v>
       </c>
+      <c r="C6" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.33820732692477151</v>
+      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="2">
         <v>0.71713486825519601</v>
       </c>
+      <c r="F6" s="15">
+        <f t="shared" si="1"/>
+        <v>1.6921692522046541</v>
+      </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="2">
         <v>0.73908513338528403</v>
       </c>
+      <c r="I6" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" s="15"/>
       <c r="K6" s="2">
         <v>0.73908513321516001</v>
       </c>
+      <c r="L6" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="15"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -717,15 +788,32 @@
       <c r="B7" s="2">
         <v>0.6875</v>
       </c>
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1728234984235362</v>
+      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="2">
         <v>0.73990076549012296</v>
       </c>
+      <c r="F7" s="15">
+        <f t="shared" si="1"/>
+        <v>1.6152664457897696</v>
+      </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="2">
         <v>0.73908513321516001</v>
       </c>
+      <c r="I7" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="15"/>
       <c r="K7" s="2">
         <v>0.73908513321516001</v>
       </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -749,14 +837,24 @@
       <c r="B8" s="2">
         <v>0.71875</v>
       </c>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5712320797384172</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="2">
         <v>0.739081136054205</v>
       </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>1.6212545741323421</v>
+      </c>
+      <c r="G8" s="15"/>
       <c r="H8" s="2">
         <v>0.73908513321516001</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -780,9 +878,19 @@
       <c r="B9" s="2">
         <v>0.734375</v>
       </c>
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.28547874635064269</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="2">
         <v>0.73908513249559404</v>
       </c>
+      <c r="F9" s="15">
+        <f t="shared" si="1"/>
+        <v>1.5641967456617165</v>
+      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -809,11 +917,19 @@
       <c r="B10" s="2">
         <v>0.7421875</v>
       </c>
+      <c r="C10" s="15">
+        <f t="shared" si="0"/>
+        <v>3.2342562317409245</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="2">
         <v>0.73908513321516101</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -838,11 +954,16 @@
       <c r="B11" s="2">
         <v>0.73828125</v>
       </c>
+      <c r="C11" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.2646520020048973</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="2">
         <v>0.73908513321516001</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -867,6 +988,11 @@
       <c r="B12" s="2">
         <v>0.740234375</v>
       </c>
+      <c r="C12" s="15">
+        <f t="shared" si="0"/>
+        <v>-5.3033075759701669</v>
+      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -894,8 +1020,11 @@
       <c r="B13" s="2">
         <v>0.7392578125</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.31815917278753469</v>
+      </c>
+      <c r="D13" s="15"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -922,8 +1051,11 @@
       <c r="B14" s="2">
         <v>0.73876953125</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="15">
+        <f t="shared" si="0"/>
+        <v>-2.4630388644038499</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -950,8 +1082,11 @@
       <c r="B15" s="2">
         <v>0.739013671875</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="15">
+        <f t="shared" si="0"/>
+        <v>0.23229103276770632</v>
+      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -978,8 +1113,11 @@
       <c r="B16" s="2">
         <v>0.7391357421875</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="15">
+        <f t="shared" si="0"/>
+        <v>4.5787872417449007</v>
+      </c>
+      <c r="D16" s="15"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1006,8 +1144,11 @@
       <c r="B17" s="2">
         <v>0.73907470703125</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.41522198848179503</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -1034,8 +1175,11 @@
       <c r="B18" s="2">
         <v>0.739105224609375</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="15">
+        <f t="shared" si="0"/>
+        <v>-2.1722078301105223</v>
+      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1062,8 +1206,11 @@
       <c r="B19" s="2">
         <v>0.73908996582031194</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.38382435537704396</v>
+      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1090,8 +1237,11 @@
       <c r="B20" s="2">
         <v>0.73908233642578103</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="15">
+        <f t="shared" si="0"/>
+        <v>1.8480482345088292</v>
+      </c>
+      <c r="D20" s="15"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1118,8 +1268,11 @@
       <c r="B21" s="2">
         <v>0.73908615112304599</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.13348054850675861</v>
+      </c>
+      <c r="D21" s="15"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1146,8 +1299,11 @@
       <c r="B22" s="2">
         <v>0.73908424377441395</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="15">
+        <f t="shared" si="0"/>
+        <v>19.47988665917444</v>
+      </c>
+      <c r="D22" s="15"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1174,8 +1330,11 @@
       <c r="B23" s="2">
         <v>0.73908519744873002</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.7077298192016952</v>
+      </c>
+      <c r="D23" s="15"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1202,8 +1361,11 @@
       <c r="B24" s="2">
         <v>0.73908472061157204</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.46364904509745142</v>
+      </c>
+      <c r="D24" s="15"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1230,8 +1392,11 @@
       <c r="B25" s="2">
         <v>0.73908495903015103</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="15">
+        <f t="shared" si="0"/>
+        <v>1.3372767117611253</v>
+      </c>
+      <c r="D25" s="15"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1258,8 +1423,11 @@
       <c r="B26" s="2">
         <v>0.73908507823944003</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="15">
+        <f t="shared" si="0"/>
+        <v>2.1457772989369346</v>
+      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1286,8 +1454,11 @@
       <c r="B27" s="2">
         <v>0.73908513784408503</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.68434724980451189</v>
+      </c>
+      <c r="D27" s="15"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1315,8 +1486,11 @@
       <c r="B28" s="2">
         <v>0.73908510804176297</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.52929588309349951</v>
+      </c>
+      <c r="D28" s="15"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1343,8 +1517,11 @@
       <c r="B29" s="2">
         <v>0.73908512294292406</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4415475438617467</v>
+      </c>
+      <c r="D29" s="15"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1371,8 +1548,11 @@
       <c r="B30" s="2">
         <v>0.73908513039350499</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="15">
+        <f t="shared" si="0"/>
+        <v>0.88122808822998955</v>
+      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1399,8 +1579,11 @@
       <c r="B31" s="2">
         <v>0.73908513411879495</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="C31" s="15">
+        <f t="shared" si="0"/>
+        <v>-5.2233652887825603E-2</v>
+      </c>
+      <c r="D31" s="15"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1427,8 +1610,11 @@
       <c r="B32" s="2">
         <v>0.73908513225615002</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="15">
+        <f t="shared" si="0"/>
+        <v>-59.60222724401256</v>
+      </c>
+      <c r="D32" s="15"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1455,8 +1641,11 @@
       <c r="B33" s="2">
         <v>0.73908513318747204</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.77891022672715182</v>
+      </c>
+      <c r="D33" s="15"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1483,8 +1672,11 @@
       <c r="B34" s="2">
         <v>0.739085133653134</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.27468588575900632</v>
+      </c>
+      <c r="D34" s="15"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1511,8 +1703,11 @@
       <c r="B35" s="2">
         <v>0.73908513342030302</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1050552876444963</v>
+      </c>
+      <c r="D35" s="15"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1539,8 +1734,11 @@
       <c r="B36" s="2">
         <v>0.73908513330388803</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="15">
+        <f t="shared" si="0"/>
+        <v>1.2732995701031178</v>
+      </c>
+      <c r="D36" s="15"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1567,8 +1765,11 @@
       <c r="B37" s="2">
         <v>0.73908513324568004</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="C37" s="15">
+        <f t="shared" si="0"/>
+        <v>2.8772337169341751</v>
+      </c>
+      <c r="D37" s="15"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1595,8 +1796,11 @@
       <c r="B38" s="2">
         <v>0.73908513321657598</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="C38" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.7254499646446898</v>
+      </c>
+      <c r="D38" s="15"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1623,8 +1827,11 @@
       <c r="B39" s="2">
         <v>0.73908513320202396</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="C39" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.36237928558872601</v>
+      </c>
+      <c r="D39" s="15"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1651,8 +1858,11 @@
       <c r="B40" s="2">
         <v>0.73908513320930003</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="C40" s="15">
+        <f t="shared" si="0"/>
+        <v>1.2013394499902743</v>
+      </c>
+      <c r="D40" s="15"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1679,8 +1889,11 @@
       <c r="B41" s="2">
         <v>0.73908513321293801</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="C41" s="15">
+        <f t="shared" si="0"/>
+        <v>1.7604745172383438</v>
+      </c>
+      <c r="D41" s="15"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1707,8 +1920,11 @@
       <c r="B42" s="2">
         <v>0.739085133214757</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="C42" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.13450326222203982</v>
+      </c>
+      <c r="D42" s="15"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1735,8 +1951,11 @@
       <c r="B43" s="2">
         <v>0.73908513321566705</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="C43" s="15">
+        <f t="shared" si="0"/>
+        <v>-9.9211957330976617</v>
+      </c>
+      <c r="D43" s="15"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1763,8 +1982,11 @@
       <c r="B44" s="2">
         <v>0.73908513321521196</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="C44" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.53296772801943171</v>
+      </c>
+      <c r="D44" s="15"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1791,8 +2013,11 @@
       <c r="B45" s="2">
         <v>0.73908513321498504</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="C45" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.85366121992998945</v>
+      </c>
+      <c r="D45" s="15"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1819,8 +2044,11 @@
       <c r="B46" s="2">
         <v>0.73908513321509794</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="C46" s="15">
+        <f t="shared" si="0"/>
+        <v>2.4307739501100492</v>
+      </c>
+      <c r="D46" s="15"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1847,8 +2075,11 @@
       <c r="B47" s="2">
         <v>0.73908513321515501</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="C47" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.62259338042163803</v>
+      </c>
+      <c r="D47" s="15"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -1875,8 +2106,11 @@
       <c r="B48" s="2">
         <v>0.73908513321518399</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="C48" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.62528324608369645</v>
+      </c>
+      <c r="D48" s="15"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -1903,8 +2137,11 @@
       <c r="B49" s="2">
         <v>0.739085133215169</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="C49" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5334752630571187</v>
+      </c>
+      <c r="D49" s="15"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -1931,8 +2168,11 @@
       <c r="B50" s="2">
         <v>0.739085133215162</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="C50" s="15">
+        <f t="shared" si="0"/>
+        <v>0.46084542061837019</v>
+      </c>
+      <c r="D50" s="15"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -1959,8 +2199,11 @@
       <c r="B51" s="2">
         <v>0.73908513321515901</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="C51" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D51" s="15"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -1987,8 +2230,11 @@
       <c r="B52" s="2">
         <v>0.73908513321516001</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="C52" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D52" s="15"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2015,8 +2261,8 @@
       <c r="B53" s="2">
         <v>0.73908513321516001</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2201,8 +2447,79 @@
       <c r="AG58" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="80">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="E1:E2"/>
@@ -2221,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E16C238-5C0F-4DF6-AC5C-23D323ACCB96}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,22 +2655,34 @@
       <c r="B4" s="2">
         <v>2.25</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="15">
+        <f>LOG10(ABS(B5-D$2)/ABS(B4-D$2))/LOG10(ABS(B4-D$2)/ABS(B3-D$2))</f>
+        <v>-4.4190225827029099</v>
+      </c>
       <c r="D4" s="15"/>
       <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="15" t="e">
+        <f>LOG10(ABS(E5-G$2)/ABS(E4-G$2))/LOG10(ABS(E4-G$2)/ABS(E3-G$2))</f>
+        <v>#NUM!</v>
+      </c>
       <c r="G4" s="15"/>
       <c r="H4" s="2">
         <v>2.3333333333333299</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="15">
+        <f>LOG10(ABS(H5-J$2)/ABS(H4-J$2))/LOG10(ABS(H4-J$2)/ABS(H3-J$2))</f>
+        <v>0.99999999999993805</v>
+      </c>
       <c r="J4" s="15"/>
       <c r="K4" s="2">
         <v>2.5</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="15">
+        <f>LOG10(ABS(K5-M$2)/ABS(K4-M$2))/LOG10(ABS(K4-M$2)/ABS(K3-M$2))</f>
+        <v>1</v>
+      </c>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -2363,22 +2692,34 @@
       <c r="B5" s="2">
         <v>2.875</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="15">
+        <f t="shared" ref="C5:C53" si="0">LOG10(ABS(B6-D$2)/ABS(B5-D$2))/LOG10(ABS(B5-D$2)/ABS(B4-D$2))</f>
+        <v>-0.22629438553091683</v>
+      </c>
       <c r="D5" s="15"/>
       <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="15" t="e">
+        <f>LOG10(ABS(E6-G$2)/ABS(E5-G$2))/LOG10(ABS(E5-G$2)/ABS(E4-G$2))</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G5" s="15"/>
       <c r="H5" s="2">
         <v>2.5555555555555398</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="15">
+        <f t="shared" ref="I5:I48" si="1">LOG10(ABS(H6-J$2)/ABS(H5-J$2))/LOG10(ABS(H5-J$2)/ABS(H4-J$2))</f>
+        <v>1.0000000000001326</v>
+      </c>
       <c r="J5" s="15"/>
       <c r="K5" s="2">
         <v>2.75</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="15">
+        <f t="shared" ref="L5:L19" si="2">LOG10(ABS(K6-M$2)/ABS(K5-M$2))/LOG10(ABS(K5-M$2)/ABS(K4-M$2))</f>
+        <v>1</v>
+      </c>
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2388,7 +2729,10 @@
       <c r="B6" s="2">
         <v>3.1875</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.4190225827029099</v>
+      </c>
       <c r="D6" s="15"/>
       <c r="E6" s="2">
         <v>3</v>
@@ -2398,12 +2742,18 @@
       <c r="H6" s="2">
         <v>2.7037037037037002</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99999999999935607</v>
+      </c>
       <c r="J6" s="15"/>
       <c r="K6" s="2">
         <v>2.875</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2413,18 +2763,27 @@
       <c r="B7" s="2">
         <v>3.03125</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.22629438553091683</v>
+      </c>
       <c r="D7" s="15"/>
       <c r="E7" s="2"/>
       <c r="H7" s="2">
         <v>2.8024691358024199</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0000000000001479</v>
+      </c>
       <c r="J7" s="15"/>
       <c r="K7" s="2">
         <v>2.9375</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M7" s="15"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -2439,18 +2798,27 @@
       <c r="B8" s="2">
         <v>2.953125</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.4190225827029099</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="2"/>
       <c r="H8" s="2">
         <v>2.8683127572015898</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99999999999257405</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="2">
         <v>2.96875</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M8" s="15"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -2465,18 +2833,27 @@
       <c r="B9" s="2">
         <v>2.9921875</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.22629438553091683</v>
+      </c>
       <c r="D9" s="15"/>
       <c r="E9" s="2"/>
       <c r="H9" s="2">
         <v>2.91220850480078</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0000000000140394</v>
+      </c>
       <c r="J9" s="15"/>
       <c r="K9" s="2">
         <v>2.984375</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -2486,18 +2863,27 @@
       <c r="B10" s="2">
         <v>3.01171875</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.4190225827029099</v>
+      </c>
       <c r="D10" s="15"/>
       <c r="E10" s="2"/>
       <c r="H10" s="2">
         <v>2.9414723365339999</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99999999998223177</v>
+      </c>
       <c r="J10" s="15"/>
       <c r="K10" s="2">
         <v>2.9921875</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -2507,18 +2893,27 @@
       <c r="B11" s="2">
         <v>3.001953125</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.22629438553091683</v>
+      </c>
       <c r="D11" s="15"/>
       <c r="E11" s="2"/>
       <c r="H11" s="2">
         <v>2.9609815576891498</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99999999979639198</v>
+      </c>
       <c r="J11" s="15"/>
       <c r="K11" s="2">
         <v>2.99609375</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -2528,18 +2923,27 @@
       <c r="B12" s="2">
         <v>2.9970703125</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.4190225827029099</v>
+      </c>
       <c r="D12" s="15"/>
       <c r="E12" s="2"/>
       <c r="H12" s="2">
         <v>2.9739877051238301</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0000000003227802</v>
+      </c>
       <c r="J12" s="15"/>
       <c r="K12" s="2">
         <v>2.998046875</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -2549,18 +2953,27 @@
       <c r="B13" s="2">
         <v>2.99951171875</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.22629438553091683</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="2"/>
       <c r="H13" s="2">
         <v>2.9826584700833099</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0000000014134895</v>
+      </c>
       <c r="J13" s="15"/>
       <c r="K13" s="2">
         <v>2.9990234375</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -2570,18 +2983,27 @@
       <c r="B14" s="2">
         <v>3.000732421875</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.4190225827029099</v>
+      </c>
       <c r="D14" s="15"/>
       <c r="E14" s="2"/>
       <c r="H14" s="2">
         <v>2.9884389800626701</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0000000027145843</v>
+      </c>
       <c r="J14" s="15"/>
       <c r="K14" s="2">
         <v>2.99951171875</v>
       </c>
-      <c r="L14" s="15"/>
+      <c r="L14" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2591,18 +3013,27 @@
       <c r="B15" s="2">
         <v>3.0001220703125</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.22629438553091683</v>
+      </c>
       <c r="D15" s="15"/>
       <c r="E15" s="2"/>
       <c r="H15" s="2">
         <v>2.99229265338835</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99999999854983379</v>
+      </c>
       <c r="J15" s="15"/>
       <c r="K15" s="2">
         <v>2.999755859375</v>
       </c>
-      <c r="L15" s="15"/>
+      <c r="L15" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2612,18 +3043,27 @@
       <c r="B16" s="2">
         <v>2.99981689453125</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.4190225823081262</v>
+      </c>
       <c r="D16" s="15"/>
       <c r="E16" s="2"/>
       <c r="H16" s="2">
         <v>2.9948617689313699</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99999989415323387</v>
+      </c>
       <c r="J16" s="15"/>
       <c r="K16" s="2">
         <v>2.9998779296875</v>
       </c>
-      <c r="L16" s="15"/>
+      <c r="L16" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2633,18 +3073,27 @@
       <c r="B17" s="2">
         <v>2.9999694824218701</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.22629438536975144</v>
+      </c>
       <c r="D17" s="15"/>
       <c r="E17" s="2"/>
       <c r="H17" s="2">
         <v>2.9965745124777698</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0000001037129163</v>
+      </c>
       <c r="J17" s="15"/>
       <c r="K17" s="2">
         <v>2.99993896484375</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="15">
+        <f t="shared" si="2"/>
+        <v>0.99999999976906617</v>
+      </c>
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2654,19 +3103,28 @@
       <c r="B18" s="2">
         <v>3.00004577636718</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.4190225862688184</v>
+      </c>
       <c r="D18" s="15"/>
       <c r="E18" s="2"/>
       <c r="H18" s="2">
         <v>2.9977163416524499</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0000010363497858</v>
+      </c>
       <c r="J18" s="15"/>
       <c r="K18" s="2">
         <v>2.9999694824218701</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="L18" s="15">
+        <f t="shared" si="2"/>
+        <v>0.9999999997480723</v>
+      </c>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -2675,18 +3133,27 @@
       <c r="B19" s="2">
         <v>3.0000076293945299</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.69918032516590578</v>
+      </c>
       <c r="D19" s="15"/>
       <c r="E19" s="2"/>
       <c r="H19" s="2">
         <v>2.9984775617417698</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99999815348562016</v>
+      </c>
       <c r="J19" s="15"/>
       <c r="K19" s="2">
         <v>2.99998474121093</v>
       </c>
-      <c r="L19" s="15"/>
+      <c r="L19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M19" s="15"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2696,13 +3163,19 @@
       <c r="B20" s="2">
         <v>3.00002670288085</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="15">
+        <f t="shared" si="0"/>
+        <v>0.24376650453815701</v>
+      </c>
       <c r="D20" s="15"/>
       <c r="E20" s="2"/>
       <c r="H20" s="2">
         <v>2.9989850408280398</v>
       </c>
-      <c r="I20" s="15"/>
+      <c r="I20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99999754410820041</v>
+      </c>
       <c r="J20" s="15"/>
       <c r="K20" s="2">
         <v>2.99998474121093</v>
@@ -2717,13 +3190,19 @@
       <c r="B21" s="2">
         <v>3.0000362396240199</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.40478514676715704</v>
+      </c>
       <c r="D21" s="15"/>
       <c r="E21" s="2"/>
       <c r="H21" s="2">
         <v>2.9993233596561502</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0000118610484419</v>
+      </c>
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2733,13 +3212,19 @@
       <c r="B22" s="2">
         <v>3.0000410079956001</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="15">
+        <f t="shared" si="0"/>
+        <v>0.4571669097733369</v>
+      </c>
       <c r="D22" s="15"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2">
         <v>2.9995489080095901</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99996339706318893</v>
+      </c>
       <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2749,13 +3234,19 @@
       <c r="B23" s="2">
         <v>3.0000433921813898</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="15">
+        <f t="shared" si="0"/>
+        <v>0.47957653357514529</v>
+      </c>
       <c r="D23" s="15"/>
       <c r="E23" s="2"/>
       <c r="H23" s="2">
         <v>2.9996992685912698</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0001011820285879</v>
+      </c>
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2765,13 +3256,19 @@
       <c r="B24" s="2">
         <v>3.0000445842742902</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49001704102542271</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="2"/>
       <c r="H24" s="2">
         <v>2.9997995183422601</v>
       </c>
-      <c r="I24" s="15"/>
+      <c r="I24" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99986815496535153</v>
+      </c>
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2781,13 +3278,19 @@
       <c r="B25" s="2">
         <v>3.00004518032073</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49506355768237792</v>
+      </c>
       <c r="D25" s="15"/>
       <c r="E25" s="2"/>
       <c r="H25" s="2">
         <v>2.9998663423813001</v>
       </c>
-      <c r="I25" s="15"/>
+      <c r="I25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99991196926219716</v>
+      </c>
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2797,13 +3300,19 @@
       <c r="B26" s="2">
         <v>3.0000454783439601</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49754524794599309</v>
+      </c>
       <c r="D26" s="15"/>
       <c r="E26" s="2"/>
       <c r="H26" s="2">
         <v>2.9999108896202702</v>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.98059256907777892</v>
+      </c>
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2813,13 +3322,19 @@
       <c r="B27" s="2">
         <v>3.0000456273555698</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49877601237834607</v>
+      </c>
       <c r="D27" s="15"/>
       <c r="E27" s="2"/>
       <c r="H27" s="2">
         <v>2.9999401202681302</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0109303807925465</v>
+      </c>
       <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2829,13 +3344,19 @@
       <c r="B28" s="2">
         <v>3.0000457018613802</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49938874786745413</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="2"/>
       <c r="H28" s="2">
         <v>2.9999599369244199</v>
       </c>
-      <c r="I28" s="15"/>
+      <c r="I28" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1430852480754834</v>
+      </c>
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2845,13 +3366,19 @@
       <c r="B29" s="2">
         <v>3.0000457391142801</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49969461116793767</v>
+      </c>
       <c r="D29" s="15"/>
       <c r="E29" s="2"/>
       <c r="H29" s="2">
         <v>2.9999746933148601</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="15">
+        <f t="shared" si="1"/>
+        <v>1.9121199147505814</v>
+      </c>
       <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2861,13 +3388,19 @@
       <c r="B30" s="2">
         <v>3.0000457577407298</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="15">
+        <f t="shared" si="0"/>
+        <v>0.4998476463495159</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="2"/>
       <c r="H30" s="2">
         <v>2.9999894864330998</v>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="15">
+        <f t="shared" si="1"/>
+        <v>-1.8494243688435812</v>
+      </c>
       <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2877,13 +3410,19 @@
       <c r="B31" s="2">
         <v>3.00004576705396</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49992316866637843</v>
+      </c>
       <c r="D31" s="15"/>
       <c r="E31" s="2"/>
       <c r="H31" s="2">
         <v>2.99994663235125</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.24397857638482395</v>
+      </c>
       <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2893,13 +3432,19 @@
       <c r="B32" s="2">
         <v>3.0000457717105702</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="15">
+        <f t="shared" si="0"/>
+        <v>0.4999628987513573</v>
+      </c>
       <c r="D32" s="15"/>
       <c r="E32" s="2"/>
       <c r="H32" s="2">
         <v>2.9999640958743199</v>
       </c>
-      <c r="I32" s="15"/>
+      <c r="I32" s="15">
+        <f t="shared" si="1"/>
+        <v>0.92537622280045162</v>
+      </c>
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2909,13 +3454,19 @@
       <c r="B33" s="2">
         <v>3.0000457740388802</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49997863697618095</v>
+      </c>
       <c r="D33" s="15"/>
       <c r="E33" s="2"/>
       <c r="H33" s="2">
         <v>2.9999751196829898</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="15">
+        <f t="shared" si="1"/>
+        <v>1.002068341397484</v>
+      </c>
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2925,13 +3476,19 @@
       <c r="B34" s="2">
         <v>3.0000457752030298</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49999504062202599</v>
+      </c>
       <c r="D34" s="15"/>
       <c r="E34" s="2"/>
       <c r="H34" s="2">
         <v>2.9999827718755299</v>
       </c>
-      <c r="I34" s="15"/>
+      <c r="I34" s="15">
+        <f t="shared" si="1"/>
+        <v>7.0980722110260794</v>
+      </c>
       <c r="J34" s="15"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2941,13 +3498,19 @@
       <c r="B35" s="2">
         <v>3.00004577578511</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49997768427742934</v>
+      </c>
       <c r="D35" s="15"/>
       <c r="E35" s="2"/>
       <c r="H35" s="2">
         <v>2.9999987315932102</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="15">
+        <f t="shared" si="1"/>
+        <v>-2.9707238850225974</v>
+      </c>
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2957,13 +3520,19 @@
       <c r="B36" s="2">
         <v>3.0000457760761399</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50001516386899425</v>
+      </c>
       <c r="D36" s="15"/>
       <c r="E36" s="2"/>
       <c r="H36" s="2">
         <v>2.9970553909015201</v>
       </c>
-      <c r="I36" s="15"/>
+      <c r="I36" s="15">
+        <f t="shared" si="1"/>
+        <v>-5.2318283802763384E-2</v>
+      </c>
       <c r="J36" s="15"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2973,13 +3542,19 @@
       <c r="B37" s="2">
         <v>3.0000457762216599</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49999880786526379</v>
+      </c>
       <c r="D37" s="15"/>
       <c r="E37" s="2"/>
       <c r="H37" s="2">
         <v>2.9980369272834499</v>
       </c>
-      <c r="I37" s="15"/>
+      <c r="I37" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99999921472637099</v>
+      </c>
       <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2989,13 +3564,19 @@
       <c r="B38" s="2">
         <v>3.0000457762944199</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50000245576970981</v>
+      </c>
       <c r="D38" s="15"/>
       <c r="E38" s="2"/>
       <c r="H38" s="2">
         <v>2.9986912844494502</v>
       </c>
-      <c r="I38" s="15"/>
+      <c r="I38" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0000049337576549</v>
+      </c>
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3005,13 +3586,19 @@
       <c r="B39" s="2">
         <v>3.0000457763308002</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49999359842799768</v>
+      </c>
       <c r="D39" s="15"/>
       <c r="E39" s="2"/>
       <c r="H39" s="2">
         <v>2.9991275244408699</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99999012660449815</v>
+      </c>
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3021,13 +3608,19 @@
       <c r="B40" s="2">
         <v>3.0000457763489901</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50026840586618948</v>
+      </c>
       <c r="D40" s="15"/>
       <c r="E40" s="2"/>
       <c r="H40" s="2">
         <v>2.99941834828175</v>
       </c>
-      <c r="I40" s="15"/>
+      <c r="I40" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0000128836491173</v>
+      </c>
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3037,13 +3630,19 @@
       <c r="B41" s="2">
         <v>3.0000457763580899</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50002432656976881</v>
+      </c>
       <c r="D41" s="15"/>
       <c r="E41" s="2"/>
       <c r="H41" s="2">
         <v>2.9996122333164701</v>
       </c>
-      <c r="I41" s="15"/>
+      <c r="I41" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0000219015641338</v>
+      </c>
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3053,13 +3652,19 @@
       <c r="B42" s="2">
         <v>3.00004577636264</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="15">
+        <f t="shared" si="0"/>
+        <v>0.4989263723112905</v>
+      </c>
       <c r="D42" s="15"/>
       <c r="E42" s="2"/>
       <c r="H42" s="2">
         <v>2.9997414919257301</v>
       </c>
-      <c r="I42" s="15"/>
+      <c r="I42" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99932984825036053</v>
+      </c>
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3069,13 +3674,19 @@
       <c r="B43" s="2">
         <v>3.0000457763649102</v>
       </c>
-      <c r="C43" s="15"/>
+      <c r="C43" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50215178179489017</v>
+      </c>
       <c r="D43" s="15"/>
       <c r="E43" s="2"/>
       <c r="H43" s="2">
         <v>2.99982761648026</v>
       </c>
-      <c r="I43" s="15"/>
+      <c r="I43" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99903908411908426</v>
+      </c>
       <c r="J43" s="15"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3085,13 +3696,19 @@
       <c r="B44" s="2">
         <v>3.0000457763660502</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49123489473818011</v>
+      </c>
       <c r="D44" s="15"/>
       <c r="E44" s="2"/>
       <c r="H44" s="2">
         <v>2.9998850030092599</v>
       </c>
-      <c r="I44" s="15"/>
+      <c r="I44" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99568250372566314</v>
+      </c>
       <c r="J44" s="15"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3101,13 +3718,19 @@
       <c r="B45" s="2">
         <v>3.0000457763666102</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51784298285590424</v>
+      </c>
       <c r="D45" s="15"/>
       <c r="E45" s="2"/>
       <c r="H45" s="2">
         <v>2.9999231513462998</v>
       </c>
-      <c r="I45" s="15"/>
+      <c r="I45" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0084115621936725</v>
+      </c>
       <c r="J45" s="15"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3117,13 +3740,19 @@
       <c r="B46" s="2">
         <v>3.0000457763669002</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="15">
+        <f t="shared" si="0"/>
+        <v>0.48238896348510885</v>
+      </c>
       <c r="D46" s="15"/>
       <c r="E46" s="2"/>
       <c r="H46" s="2">
         <v>2.99994881842979</v>
       </c>
-      <c r="I46" s="15"/>
+      <c r="I46" s="15">
+        <f t="shared" si="1"/>
+        <v>0.94154022526143732</v>
+      </c>
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3133,13 +3762,19 @@
       <c r="B47" s="2">
         <v>3.0000457763670401</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="15">
+        <f t="shared" si="0"/>
+        <v>0.49841272301498241</v>
+      </c>
       <c r="D47" s="15"/>
       <c r="E47" s="2"/>
       <c r="H47" s="2">
         <v>2.99996509316908</v>
       </c>
-      <c r="I47" s="15"/>
+      <c r="I47" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0625365286603703</v>
+      </c>
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3149,13 +3784,19 @@
       <c r="B48" s="2">
         <v>3.0000457763671098</v>
       </c>
-      <c r="C48" s="15"/>
+      <c r="C48" s="15">
+        <f t="shared" si="0"/>
+        <v>0.57961785500888008</v>
+      </c>
       <c r="D48" s="15"/>
       <c r="E48" s="2"/>
       <c r="H48" s="2">
         <v>2.99997675586072</v>
       </c>
-      <c r="I48" s="15"/>
+      <c r="I48" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3165,7 +3806,10 @@
       <c r="B49" s="2">
         <v>3.0000457763671502</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="C49" s="15">
+        <f t="shared" si="0"/>
+        <v>0.24175830540976165</v>
+      </c>
       <c r="D49" s="15"/>
       <c r="E49" s="2"/>
       <c r="H49" s="2">
@@ -3181,7 +3825,10 @@
       <c r="B50" s="2">
         <v>3.00004577636716</v>
       </c>
-      <c r="C50" s="15"/>
+      <c r="C50" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0454538361051875</v>
+      </c>
       <c r="D50" s="15"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3195,7 +3842,10 @@
       <c r="B51" s="2">
         <v>3.0000457763671702</v>
       </c>
-      <c r="C51" s="15"/>
+      <c r="C51" s="15">
+        <f t="shared" si="0"/>
+        <v>0.95652238813860524</v>
+      </c>
       <c r="D51" s="15"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3209,7 +3859,10 @@
       <c r="B52" s="2">
         <v>3.00004577636718</v>
       </c>
-      <c r="C52" s="15"/>
+      <c r="C52" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D52" s="15"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3223,7 +3876,10 @@
       <c r="B53" s="2">
         <v>3.00004577636718</v>
       </c>
-      <c r="C53" s="15"/>
+      <c r="C53" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="D53" s="15"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -3384,16 +4040,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A10C0E-2CF0-4B75-A039-AD497CED4A0E}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -3499,22 +4154,34 @@
       <c r="B4" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="15">
+        <f>LOG10(ABS(B5-D$2)/ABS(B4-D$2))/LOG10(ABS(B4-D$2)/ABS(B3-D$2))</f>
+        <v>1</v>
+      </c>
       <c r="D4" s="15"/>
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="15">
+        <f>LOG10(ABS(E5-G$2)/ABS(E4-G$2))/LOG10(ABS(E4-G$2)/ABS(E3-G$2))</f>
+        <v>-1.7061430996611391</v>
+      </c>
       <c r="G4" s="15"/>
       <c r="H4" s="2">
         <v>0.38816551686574002</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="15">
+        <f>LOG10(ABS(H5-J$2)/ABS(H4-J$2))/LOG10(ABS(H4-J$2)/ABS(H3-J$2))</f>
+        <v>1.5209529924777578</v>
+      </c>
       <c r="J4" s="15"/>
       <c r="K4" s="2">
         <v>0.15018801364339601</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="15">
+        <f>LOG10(ABS(K5-M$2)/ABS(K4-M$2))/LOG10(ABS(K4-M$2)/ABS(K3-M$2))</f>
+        <v>2.2759713325120234</v>
+      </c>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3524,22 +4191,34 @@
       <c r="B5" s="2">
         <v>0.125</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="15">
+        <f>LOG10(ABS(B6-D$2)/ABS(B5-D$2))/LOG10(ABS(B5-D$2)/ABS(B4-D$2))</f>
+        <v>1</v>
+      </c>
       <c r="D5" s="15"/>
       <c r="E5" s="2">
         <v>0.61295662837854903</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="15">
+        <f t="shared" ref="F5:F14" si="0">LOG10(ABS(E6-G$2)/ABS(E5-G$2))/LOG10(ABS(E5-G$2)/ABS(E4-G$2))</f>
+        <v>0.35548696611305114</v>
+      </c>
       <c r="G5" s="15"/>
       <c r="H5" s="2">
         <v>9.2030345945663006E-2</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="15">
+        <f t="shared" ref="I5:I10" si="1">LOG10(ABS(H6-J$2)/ABS(H5-J$2))/LOG10(ABS(H5-J$2)/ABS(H4-J$2))</f>
+        <v>1.7563356752591011</v>
+      </c>
       <c r="J5" s="15"/>
       <c r="K5" s="2">
         <v>2.0076165148969999E-3</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="15">
+        <f t="shared" ref="L5:L8" si="2">LOG10(ABS(K6-M$2)/ABS(K5-M$2))/LOG10(ABS(K5-M$2)/ABS(K4-M$2))</f>
+        <v>2.9221150958202324</v>
+      </c>
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3549,22 +4228,34 @@
       <c r="B6" s="2">
         <v>-6.25E-2</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="15">
+        <f>LOG10(ABS(B7-D$2)/ABS(B6-D$2))/LOG10(ABS(B6-D$2)/ABS(B5-D$2))</f>
+        <v>1</v>
+      </c>
       <c r="D6" s="15"/>
       <c r="E6" s="2">
         <v>0.402579402671492</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>2.6017298739611898</v>
+      </c>
       <c r="G6" s="15"/>
       <c r="H6" s="2">
         <v>7.3463293261811996E-3</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="15">
+        <f t="shared" si="1"/>
+        <v>1.9485291293477536</v>
+      </c>
       <c r="J6" s="15"/>
       <c r="K6" s="2">
         <v>6.7107333999999999E-9</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4293092617930736</v>
+      </c>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3574,22 +4265,34 @@
       <c r="B7" s="2">
         <v>3.125E-2</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15">
+        <f t="shared" ref="C5:C54" si="3">LOG10(ABS(B8-D$2)/ABS(B7-D$2))/LOG10(ABS(B7-D$2)/ABS(B6-D$2))</f>
+        <v>1</v>
+      </c>
       <c r="D7" s="15"/>
       <c r="E7" s="2">
         <v>0.13484424247059101</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1690625607810154</v>
+      </c>
       <c r="G7" s="15"/>
       <c r="H7" s="2">
         <v>5.3315920884800002E-5</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="15">
+        <f t="shared" si="1"/>
+        <v>1.9975480360091324</v>
+      </c>
       <c r="J7" s="15"/>
       <c r="K7" s="2">
         <v>-9.9999999999999998E-17</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="15">
+        <f>LOG10(ABS(K8-M$2)/ABS(K7-M$2))/LOG10(ABS(K7-M$2)/ABS(K6-M$2))</f>
+        <v>0</v>
+      </c>
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3599,22 +4302,34 @@
       <c r="B8" s="2">
         <v>-1.5625E-2</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="2">
         <v>3.7540954598882001E-2</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6718879635985457</v>
+      </c>
       <c r="G8" s="15"/>
       <c r="H8" s="2">
         <v>2.8423347999999999E-9</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="2">
         <v>9.9999999999999998E-17</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="15" t="e">
+        <f>LOG10(ABS(K9-M$2)/ABS(K8-M$2))/LOG10(ABS(K8-M$2)/ABS(K7-M$2))</f>
+        <v>#NUM!</v>
+      </c>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3624,17 +4339,26 @@
       <c r="B9" s="2">
         <v>7.8125E-3</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D9" s="15"/>
       <c r="E9" s="2">
         <v>4.4265015837714004E-3</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5514465348317774</v>
+      </c>
       <c r="G9" s="15"/>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3644,17 +4368,26 @@
       <c r="B10" s="2">
         <v>-3.90625E-3</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D10" s="15"/>
       <c r="E10" s="2">
         <v>1.6055666190410001E-4</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6353399839838192</v>
+      </c>
       <c r="G10" s="15"/>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3664,12 +4397,18 @@
       <c r="B11" s="2">
         <v>1.953125E-3</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D11" s="15"/>
       <c r="E11" s="2">
         <v>7.0799763370000002E-7</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>1.610814698145167</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="2"/>
     </row>
@@ -3680,12 +4419,18 @@
       <c r="B12" s="2">
         <v>-9.765625E-4</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D12" s="15"/>
       <c r="E12" s="2">
         <v>1.136586E-10</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
       <c r="G12" s="15"/>
       <c r="H12" s="2"/>
     </row>
@@ -3696,12 +4441,18 @@
       <c r="B13" s="2">
         <v>4.8828125E-4</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G13" s="15"/>
       <c r="H13" s="2"/>
     </row>
@@ -3712,12 +4463,18 @@
       <c r="B14" s="2">
         <v>-2.44140625E-4</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D14" s="15"/>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G14" s="15"/>
       <c r="H14" s="2"/>
     </row>
@@ -3728,7 +4485,10 @@
       <c r="B15" s="2">
         <v>1.220703125E-4</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D15" s="15"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3741,7 +4501,10 @@
       <c r="B16" s="2">
         <v>-6.103515625E-5</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D16" s="15"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3754,7 +4517,10 @@
       <c r="B17" s="2">
         <v>3.0517578125E-5</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D17" s="15"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3767,7 +4533,10 @@
       <c r="B18" s="2">
         <v>-1.52587890625E-5</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99999999999054501</v>
+      </c>
       <c r="D18" s="15"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -3780,7 +4549,10 @@
       <c r="B19" s="2">
         <v>7.6293945313000004E-6</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0000000000283649</v>
+      </c>
       <c r="D19" s="15"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -3794,7 +4566,10 @@
       <c r="B20" s="2">
         <v>-3.8146972655999998E-6</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99999999998109013</v>
+      </c>
       <c r="D20" s="15"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3808,7 +4583,10 @@
       <c r="B21" s="2">
         <v>1.9073486327999999E-6</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D21" s="15"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -3821,11 +4599,15 @@
       <c r="B22" s="2">
         <v>-9.5367431639999996E-7</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D22" s="15"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -3834,7 +4616,10 @@
       <c r="B23" s="2">
         <v>4.7683715819999998E-7</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D23" s="15"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -3847,7 +4632,10 @@
       <c r="B24" s="2">
         <v>-2.3841857909999999E-7</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="15">
+        <f t="shared" si="3"/>
+        <v>0.9999999993948897</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -3860,7 +4648,10 @@
       <c r="B25" s="2">
         <v>1.1920928960000001E-7</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0000000006051102</v>
+      </c>
       <c r="D25" s="15"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -3873,7 +4664,10 @@
       <c r="B26" s="2">
         <v>-5.9604644800000003E-8</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D26" s="15"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3886,7 +4680,10 @@
       <c r="B27" s="2">
         <v>2.9802322400000001E-8</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D27" s="15"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -3899,7 +4696,10 @@
       <c r="B28" s="2">
         <v>-1.4901161200000001E-8</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D28" s="15"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3912,7 +4712,10 @@
       <c r="B29" s="2">
         <v>7.4505806000000003E-9</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D29" s="15"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3925,7 +4728,10 @@
       <c r="B30" s="2">
         <v>-3.7252903000000002E-9</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0000000387270507</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3938,7 +4744,10 @@
       <c r="B31" s="2">
         <v>1.8626451000000001E-9</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99999988381885374</v>
+      </c>
       <c r="D31" s="15"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -3951,7 +4760,10 @@
       <c r="B32" s="2">
         <v>-9.3132260000000005E-10</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="15">
+        <f t="shared" si="3"/>
+        <v>1.000000077454106</v>
+      </c>
       <c r="D32" s="15"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3964,7 +4776,10 @@
       <c r="B33" s="2">
         <v>4.6566130000000002E-10</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0000003098164258</v>
+      </c>
       <c r="D33" s="15"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3977,7 +4792,10 @@
       <c r="B34" s="2">
         <v>-2.328306E-10</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99999969018367019</v>
+      </c>
       <c r="D34" s="15"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3990,7 +4808,10 @@
       <c r="B35" s="2">
         <v>1.164153E-10</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99999876073469629</v>
+      </c>
       <c r="D35" s="15"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -4003,7 +4824,10 @@
       <c r="B36" s="2">
         <v>-5.8207700000000002E-11</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0000037178015833</v>
+      </c>
       <c r="D36" s="15"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4016,7 +4840,10 @@
       <c r="B37" s="2">
         <v>2.9103800000000001E-11</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99999752147447085</v>
+      </c>
       <c r="D37" s="15"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4029,7 +4856,10 @@
       <c r="B38" s="2">
         <v>-1.4551900000000001E-11</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99999008589885963</v>
+      </c>
       <c r="D38" s="15"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4042,7 +4872,10 @@
       <c r="B39" s="2">
         <v>7.2759999999999993E-12</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0000099141994307</v>
+      </c>
       <c r="D39" s="15"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4055,7 +4888,10 @@
       <c r="B40" s="2">
         <v>-3.6379999999999996E-12</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D40" s="15"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -4068,7 +4904,10 @@
       <c r="B41" s="2">
         <v>1.8189999999999998E-12</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D41" s="15"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4081,7 +4920,10 @@
       <c r="B42" s="2">
         <v>-9.0949999999999991E-13</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0001586337943087</v>
+      </c>
       <c r="D42" s="15"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4094,7 +4936,10 @@
       <c r="B43" s="2">
         <v>4.5470000000000002E-13</v>
       </c>
-      <c r="C43" s="15"/>
+      <c r="C43" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99952419153728489</v>
+      </c>
       <c r="D43" s="15"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4107,7 +4952,10 @@
       <c r="B44" s="2">
         <v>-2.2740000000000002E-13</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0003173508273049</v>
+      </c>
       <c r="D44" s="15"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -4120,7 +4968,10 @@
       <c r="B45" s="2">
         <v>1.1370000000000001E-13</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="15">
+        <f t="shared" si="3"/>
+        <v>1.001269419387566</v>
+      </c>
       <c r="D45" s="15"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4133,7 +4984,10 @@
       <c r="B46" s="2">
         <v>-5.6800000000000002E-14</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99873218999503421</v>
+      </c>
       <c r="D46" s="15"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -4146,7 +5000,10 @@
       <c r="B47" s="2">
         <v>2.8400000000000001E-14</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D47" s="15"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -4159,7 +5016,10 @@
       <c r="B48" s="2">
         <v>-1.42E-14</v>
       </c>
-      <c r="C48" s="15"/>
+      <c r="C48" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D48" s="15"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -4172,7 +5032,10 @@
       <c r="B49" s="2">
         <v>7.1000000000000002E-15</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="C49" s="15">
+        <f t="shared" si="3"/>
+        <v>0.97982211806236974</v>
+      </c>
       <c r="D49" s="15"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -4185,7 +5048,10 @@
       <c r="B50" s="2">
         <v>-3.6000000000000001E-15</v>
       </c>
-      <c r="C50" s="15"/>
+      <c r="C50" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0205934134019476</v>
+      </c>
       <c r="D50" s="15"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -4198,7 +5064,10 @@
       <c r="B51" s="2">
         <v>1.8000000000000001E-15</v>
       </c>
-      <c r="C51" s="15"/>
+      <c r="C51" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="D51" s="15"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -4211,7 +5080,10 @@
       <c r="B52" s="2">
         <v>-9.0000000000000003E-16</v>
       </c>
-      <c r="C52" s="15"/>
+      <c r="C52" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1699250014423126</v>
+      </c>
       <c r="D52" s="15"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -4224,7 +5096,10 @@
       <c r="B53" s="2">
         <v>3.9999999999999999E-16</v>
       </c>
-      <c r="C53" s="15"/>
+      <c r="C53" s="15">
+        <f t="shared" si="3"/>
+        <v>0.85475564567572726</v>
+      </c>
       <c r="D53" s="15"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -4237,7 +5112,10 @@
       <c r="B54" s="2">
         <v>-2E-16</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
       <c r="D54" s="15"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>

--- a/CompiladoResultadosFinaisl.xlsx
+++ b/CompiladoResultadosFinaisl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Proj1Numerico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCB652F-6A4A-49A1-AADA-DBA503E1DB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FEB9D2-61E3-4FB5-A245-A1DB5F91271B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equação 1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
   <si>
     <t>i</t>
   </si>
   <si>
     <t>Bissection</t>
-  </si>
-  <si>
-    <t>Section</t>
   </si>
   <si>
     <t>Newton</t>
@@ -54,6 +51,33 @@
   </si>
   <si>
     <t>x*=</t>
+  </si>
+  <si>
+    <t>Secant</t>
+  </si>
+  <si>
+    <t>x0=0; x1=2</t>
+  </si>
+  <si>
+    <t>x0=1</t>
+  </si>
+  <si>
+    <t>x0=1; x1;6</t>
+  </si>
+  <si>
+    <t>x0=1; x1=5</t>
+  </si>
+  <si>
+    <t>x0 = 2</t>
+  </si>
+  <si>
+    <t>x0=-1; x1=2</t>
+  </si>
+  <si>
+    <t>x0=1; x1=2</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -158,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,27 +194,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,7 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,66 +538,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="D2" s="7">
+        <v>0.73908513321516001</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="G2" s="7">
+        <v>0.73908513321516001</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="J2" s="7">
+        <v>0.73908513321516001</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.73908513321516001</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.73908513321516001</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0.73908513321516001</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="9">
+      <c r="M2" s="7">
         <v>0.73908513321516001</v>
       </c>
       <c r="S2" s="2"/>
@@ -592,23 +631,31 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="17"/>
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="I3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="17"/>
       <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="L3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="17"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -632,35 +679,35 @@
       <c r="B4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="20">
         <f>LOG10(ABS(B5-D$2)/ABS(B4-D$2))/LOG10(ABS(B4-D$2)/ABS(B3-D$2))</f>
         <v>35.327179654052593</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="20">
         <f>LOG10(ABS(E5-G$2)/ABS(E4-G$2))/LOG10(ABS(E4-G$2)/ABS(E3-G$2))</f>
         <v>-3.9407044967344071</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="2">
         <v>0.750363867840243</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="20">
         <f>LOG10(ABS(H5-J$2)/ABS(H4-J$2))/LOG10(ABS(H4-J$2)/ABS(H3-J$2))</f>
         <v>1.9123320892035705</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="2">
         <v>0.74087399508034302</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="20">
         <f>LOG10(ABS(K5-M$2)/ABS(K4-M$2))/LOG10(ABS(K4-M$2)/ABS(K3-M$2))</f>
         <v>2.9721231406169957</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="20"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -684,35 +731,35 @@
       <c r="B5" s="2">
         <v>0.75</v>
       </c>
-      <c r="C5" s="15">
-        <f t="shared" ref="C5:C53" si="0">LOG10(ABS(B6-D$2)/ABS(B5-D$2))/LOG10(ABS(B5-D$2)/ABS(B4-D$2))</f>
+      <c r="C5" s="20">
+        <f t="shared" ref="C5:C52" si="0">LOG10(ABS(B6-D$2)/ABS(B5-D$2))/LOG10(ABS(B5-D$2)/ABS(B4-D$2))</f>
         <v>-0.76030187511553582</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="2">
         <v>0.58545492793321796</v>
       </c>
-      <c r="F5" s="15">
-        <f t="shared" ref="F5:F11" si="1">LOG10(ABS(E6-G$2)/ABS(E5-G$2))/LOG10(ABS(E5-G$2)/ABS(E4-G$2))</f>
+      <c r="F5" s="20">
+        <f t="shared" ref="F5:F10" si="1">LOG10(ABS(E6-G$2)/ABS(E5-G$2))/LOG10(ABS(E5-G$2)/ABS(E4-G$2))</f>
         <v>0.92433644951085425</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2">
         <v>0.73911289091136101</v>
       </c>
-      <c r="I5" s="15">
-        <f t="shared" ref="I5:I8" si="2">LOG10(ABS(H6-J$2)/ABS(H5-J$2))/LOG10(ABS(H5-J$2)/ABS(H4-J$2))</f>
+      <c r="I5" s="20">
+        <f t="shared" ref="I5:I7" si="2">LOG10(ABS(H6-J$2)/ABS(H5-J$2))/LOG10(ABS(H5-J$2)/ABS(H4-J$2))</f>
         <v>1.998031277906354</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="2">
         <v>0.73908513387758101</v>
       </c>
-      <c r="L5" s="15" t="e">
+      <c r="L5" s="20" t="e">
         <f t="shared" ref="L5:L6" si="3">LOG10(ABS(K6-M$2)/ABS(K5-M$2))/LOG10(ABS(K5-M$2)/ABS(K4-M$2))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="20"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -736,35 +783,35 @@
       <c r="B6" s="2">
         <v>0.625</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>-0.33820732692477151</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="2">
         <v>0.71713486825519601</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="20">
         <f t="shared" si="1"/>
         <v>1.6921692522046541</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2">
         <v>0.73908513338528403</v>
       </c>
-      <c r="I6" s="15" t="e">
+      <c r="I6" s="20" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="2">
         <v>0.73908513321516001</v>
       </c>
-      <c r="L6" s="15" t="e">
+      <c r="L6" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="20"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -788,32 +835,34 @@
       <c r="B7" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>1.1728234984235362</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="2">
         <v>0.73990076549012296</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="20">
         <f t="shared" si="1"/>
         <v>1.6152664457897696</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="2">
         <v>0.73908513321516001</v>
       </c>
-      <c r="I7" s="15" t="e">
+      <c r="I7" s="20" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="2">
         <v>0.73908513321516001</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="L7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="16"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -837,24 +886,26 @@
       <c r="B8" s="2">
         <v>0.71875</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>1.5712320797384172</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="2">
         <v>0.739081136054205</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="20">
         <f t="shared" si="1"/>
         <v>1.6212545741323421</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2">
         <v>0.73908513321516001</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="16"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -878,19 +929,19 @@
       <c r="B9" s="2">
         <v>0.734375</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>0.28547874635064269</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="2">
         <v>0.73908513249559404</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="20">
         <f t="shared" si="1"/>
         <v>1.5641967456617165</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -917,19 +968,19 @@
       <c r="B10" s="2">
         <v>0.7421875</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>3.2342562317409245</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="2">
         <v>0.73908513321516101</v>
       </c>
-      <c r="F10" s="15" t="e">
+      <c r="F10" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -954,16 +1005,18 @@
       <c r="B11" s="2">
         <v>0.73828125</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
         <v>-0.2646520020048973</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="2">
         <v>0.73908513321516001</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="16"/>
       <c r="H11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -988,11 +1041,11 @@
       <c r="B12" s="2">
         <v>0.740234375</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
         <v>-5.3033075759701669</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1020,11 +1073,11 @@
       <c r="B13" s="2">
         <v>0.7392578125</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
         <v>-0.31815917278753469</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1051,11 +1104,11 @@
       <c r="B14" s="2">
         <v>0.73876953125</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f t="shared" si="0"/>
         <v>-2.4630388644038499</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1082,11 +1135,11 @@
       <c r="B15" s="2">
         <v>0.739013671875</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="20">
         <f t="shared" si="0"/>
         <v>0.23229103276770632</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1113,11 +1166,11 @@
       <c r="B16" s="2">
         <v>0.7391357421875</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="20">
         <f t="shared" si="0"/>
         <v>4.5787872417449007</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1144,11 +1197,11 @@
       <c r="B17" s="2">
         <v>0.73907470703125</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="20">
         <f t="shared" si="0"/>
         <v>-0.41522198848179503</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -1175,11 +1228,11 @@
       <c r="B18" s="2">
         <v>0.739105224609375</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="20">
         <f t="shared" si="0"/>
         <v>-2.1722078301105223</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1206,14 +1259,14 @@
       <c r="B19" s="2">
         <v>0.73908996582031194</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="20">
         <f t="shared" si="0"/>
         <v>0.38382435537704396</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="3"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1237,11 +1290,11 @@
       <c r="B20" s="2">
         <v>0.73908233642578103</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="20">
         <f t="shared" si="0"/>
         <v>1.8480482345088292</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1268,11 +1321,11 @@
       <c r="B21" s="2">
         <v>0.73908615112304599</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="20">
         <f t="shared" si="0"/>
         <v>0.13348054850675861</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1299,11 +1352,11 @@
       <c r="B22" s="2">
         <v>0.73908424377441395</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="20">
         <f t="shared" si="0"/>
         <v>19.47988665917444</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1330,11 +1383,11 @@
       <c r="B23" s="2">
         <v>0.73908519744873002</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="20">
         <f t="shared" si="0"/>
         <v>-0.7077298192016952</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1361,11 +1414,11 @@
       <c r="B24" s="2">
         <v>0.73908472061157204</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="20">
         <f t="shared" si="0"/>
         <v>-0.46364904509745142</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1392,11 +1445,11 @@
       <c r="B25" s="2">
         <v>0.73908495903015103</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="20">
         <f t="shared" si="0"/>
         <v>1.3372767117611253</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1423,11 +1476,11 @@
       <c r="B26" s="2">
         <v>0.73908507823944003</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="20">
         <f t="shared" si="0"/>
         <v>2.1457772989369346</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1454,11 +1507,11 @@
       <c r="B27" s="2">
         <v>0.73908513784408503</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="20">
         <f t="shared" si="0"/>
         <v>-0.68434724980451189</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1486,11 +1539,11 @@
       <c r="B28" s="2">
         <v>0.73908510804176297</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="20">
         <f t="shared" si="0"/>
         <v>-0.52929588309349951</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1517,11 +1570,11 @@
       <c r="B29" s="2">
         <v>0.73908512294292406</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="20">
         <f t="shared" si="0"/>
         <v>1.4415475438617467</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1548,11 +1601,11 @@
       <c r="B30" s="2">
         <v>0.73908513039350499</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="20">
         <f t="shared" si="0"/>
         <v>0.88122808822998955</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1579,11 +1632,11 @@
       <c r="B31" s="2">
         <v>0.73908513411879495</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="20">
         <f t="shared" si="0"/>
         <v>-5.2233652887825603E-2</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1610,11 +1663,11 @@
       <c r="B32" s="2">
         <v>0.73908513225615002</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="20">
         <f t="shared" si="0"/>
         <v>-59.60222724401256</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1641,11 +1694,11 @@
       <c r="B33" s="2">
         <v>0.73908513318747204</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="20">
         <f t="shared" si="0"/>
         <v>-0.77891022672715182</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1672,11 +1725,11 @@
       <c r="B34" s="2">
         <v>0.739085133653134</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="20">
         <f t="shared" si="0"/>
         <v>-0.27468588575900632</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1703,11 +1756,11 @@
       <c r="B35" s="2">
         <v>0.73908513342030302</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="20">
         <f t="shared" si="0"/>
         <v>1.1050552876444963</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1734,11 +1787,11 @@
       <c r="B36" s="2">
         <v>0.73908513330388803</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="20">
         <f t="shared" si="0"/>
         <v>1.2732995701031178</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1765,11 +1818,11 @@
       <c r="B37" s="2">
         <v>0.73908513324568004</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="20">
         <f t="shared" si="0"/>
         <v>2.8772337169341751</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1796,11 +1849,11 @@
       <c r="B38" s="2">
         <v>0.73908513321657598</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="20">
         <f t="shared" si="0"/>
         <v>-0.7254499646446898</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1827,11 +1880,11 @@
       <c r="B39" s="2">
         <v>0.73908513320202396</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="20">
         <f t="shared" si="0"/>
         <v>-0.36237928558872601</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1858,11 +1911,11 @@
       <c r="B40" s="2">
         <v>0.73908513320930003</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="20">
         <f t="shared" si="0"/>
         <v>1.2013394499902743</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1889,11 +1942,11 @@
       <c r="B41" s="2">
         <v>0.73908513321293801</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="20">
         <f t="shared" si="0"/>
         <v>1.7604745172383438</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1920,11 +1973,11 @@
       <c r="B42" s="2">
         <v>0.739085133214757</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="20">
         <f t="shared" si="0"/>
         <v>-0.13450326222203982</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1951,11 +2004,11 @@
       <c r="B43" s="2">
         <v>0.73908513321566705</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="20">
         <f t="shared" si="0"/>
         <v>-9.9211957330976617</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1982,11 +2035,11 @@
       <c r="B44" s="2">
         <v>0.73908513321521196</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="20">
         <f t="shared" si="0"/>
         <v>-0.53296772801943171</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2013,11 +2066,11 @@
       <c r="B45" s="2">
         <v>0.73908513321498504</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="20">
         <f t="shared" si="0"/>
         <v>-0.85366121992998945</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2044,11 +2097,11 @@
       <c r="B46" s="2">
         <v>0.73908513321509794</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="20">
         <f t="shared" si="0"/>
         <v>2.4307739501100492</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2075,11 +2128,11 @@
       <c r="B47" s="2">
         <v>0.73908513321515501</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="20">
         <f t="shared" si="0"/>
         <v>-0.62259338042163803</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2106,11 +2159,11 @@
       <c r="B48" s="2">
         <v>0.73908513321518399</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="20">
         <f t="shared" si="0"/>
         <v>-0.62528324608369645</v>
       </c>
-      <c r="D48" s="15"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2137,11 +2190,11 @@
       <c r="B49" s="2">
         <v>0.739085133215169</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="20">
         <f t="shared" si="0"/>
         <v>1.5334752630571187</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2168,11 +2221,11 @@
       <c r="B50" s="2">
         <v>0.739085133215162</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="20">
         <f t="shared" si="0"/>
         <v>0.46084542061837019</v>
       </c>
-      <c r="D50" s="15"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2199,11 +2252,11 @@
       <c r="B51" s="2">
         <v>0.73908513321515901</v>
       </c>
-      <c r="C51" s="15" t="e">
+      <c r="C51" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2230,11 +2283,11 @@
       <c r="B52" s="2">
         <v>0.73908513321516001</v>
       </c>
-      <c r="C52" s="15" t="e">
+      <c r="C52" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2261,8 +2314,10 @@
       <c r="B53" s="2">
         <v>0.73908513321516001</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="16"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2447,8 +2502,7 @@
       <c r="AG58" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="L7:M7"/>
+  <mergeCells count="76">
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
@@ -2474,11 +2528,6 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
@@ -2486,11 +2535,11 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
@@ -2498,11 +2547,11 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -2510,6 +2559,11 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -2520,11 +2574,8 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K1:K2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:J1"/>
@@ -2538,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E16C238-5C0F-4DF6-AC5C-23D323ACCB96}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,66 +2611,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="8" t="s">
+      <c r="G2" s="7">
         <v>3</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="J2" s="7">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="9">
-        <v>3</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="9">
+      <c r="M2" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2630,23 +2689,31 @@
       <c r="B3" s="2">
         <v>3.5</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17"/>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="17"/>
       <c r="H3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="2">
+      <c r="I3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="19">
         <v>2</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="L3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -2655,35 +2722,35 @@
       <c r="B4" s="2">
         <v>2.25</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="20">
         <f>LOG10(ABS(B5-D$2)/ABS(B4-D$2))/LOG10(ABS(B4-D$2)/ABS(B3-D$2))</f>
         <v>-4.4190225827029099</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="15" t="e">
+      <c r="F4" s="20" t="e">
         <f>LOG10(ABS(E5-G$2)/ABS(E4-G$2))/LOG10(ABS(E4-G$2)/ABS(E3-G$2))</f>
         <v>#NUM!</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="2">
         <v>2.3333333333333299</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="20">
         <f>LOG10(ABS(H5-J$2)/ABS(H4-J$2))/LOG10(ABS(H4-J$2)/ABS(H3-J$2))</f>
         <v>0.99999999999993805</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="2">
         <v>2.5</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="20">
         <f>LOG10(ABS(K5-M$2)/ABS(K4-M$2))/LOG10(ABS(K4-M$2)/ABS(K3-M$2))</f>
         <v>1</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -2692,35 +2759,35 @@
       <c r="B5" s="2">
         <v>2.875</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="20">
         <f t="shared" ref="C5:C53" si="0">LOG10(ABS(B6-D$2)/ABS(B5-D$2))/LOG10(ABS(B5-D$2)/ABS(B4-D$2))</f>
         <v>-0.22629438553091683</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="e">
+      <c r="F5" s="20" t="e">
         <f>LOG10(ABS(E6-G$2)/ABS(E5-G$2))/LOG10(ABS(E5-G$2)/ABS(E4-G$2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2">
         <v>2.5555555555555398</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="20">
         <f t="shared" ref="I5:I48" si="1">LOG10(ABS(H6-J$2)/ABS(H5-J$2))/LOG10(ABS(H5-J$2)/ABS(H4-J$2))</f>
         <v>1.0000000000001326</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="2">
         <v>2.75</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="20">
         <f t="shared" ref="L5:L19" si="2">LOG10(ABS(K6-M$2)/ABS(K5-M$2))/LOG10(ABS(K5-M$2)/ABS(K4-M$2))</f>
         <v>1</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2729,32 +2796,34 @@
       <c r="B6" s="2">
         <v>3.1875</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>-4.4190225827029099</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="16"/>
       <c r="H6" s="2">
         <v>2.7037037037037002</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="20">
         <f t="shared" si="1"/>
         <v>0.99999999999935607</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="2">
         <v>2.875</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -2763,28 +2832,28 @@
       <c r="B7" s="2">
         <v>3.03125</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>-0.22629438553091683</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="2"/>
       <c r="H7" s="2">
         <v>2.8024691358024199</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="20">
         <f t="shared" si="1"/>
         <v>1.0000000000001479</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="2">
         <v>2.9375</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="20"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="T7" s="6"/>
@@ -2798,28 +2867,28 @@
       <c r="B8" s="2">
         <v>2.953125</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>-4.4190225827029099</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="2"/>
       <c r="H8" s="2">
         <v>2.8683127572015898</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="20">
         <f t="shared" si="1"/>
         <v>0.99999999999257405</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="2">
         <v>2.96875</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M8" s="15"/>
+      <c r="M8" s="20"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="T8" s="6"/>
@@ -2833,28 +2902,28 @@
       <c r="B9" s="2">
         <v>2.9921875</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>-0.22629438553091683</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="2"/>
       <c r="H9" s="2">
         <v>2.91220850480078</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="20">
         <f t="shared" si="1"/>
         <v>1.0000000000140394</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="2">
         <v>2.984375</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M9" s="15"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -2863,28 +2932,28 @@
       <c r="B10" s="2">
         <v>3.01171875</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>-4.4190225827029099</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="2"/>
       <c r="H10" s="2">
         <v>2.9414723365339999</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="20">
         <f t="shared" si="1"/>
         <v>0.99999999998223177</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="2">
         <v>2.9921875</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M10" s="15"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -2893,28 +2962,28 @@
       <c r="B11" s="2">
         <v>3.001953125</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
         <v>-0.22629438553091683</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="2"/>
       <c r="H11" s="2">
         <v>2.9609815576891498</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="20">
         <f t="shared" si="1"/>
         <v>0.99999999979639198</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="2">
         <v>2.99609375</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M11" s="15"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -2923,28 +2992,28 @@
       <c r="B12" s="2">
         <v>2.9970703125</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
         <v>-4.4190225827029099</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="2"/>
       <c r="H12" s="2">
         <v>2.9739877051238301</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="20">
         <f t="shared" si="1"/>
         <v>1.0000000003227802</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="2">
         <v>2.998046875</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M12" s="15"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -2953,28 +3022,28 @@
       <c r="B13" s="2">
         <v>2.99951171875</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
         <v>-0.22629438553091683</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="2"/>
       <c r="H13" s="2">
         <v>2.9826584700833099</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="20">
         <f t="shared" si="1"/>
         <v>1.0000000014134895</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="2">
         <v>2.9990234375</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M13" s="15"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -2983,28 +3052,28 @@
       <c r="B14" s="2">
         <v>3.000732421875</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f t="shared" si="0"/>
         <v>-4.4190225827029099</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="2"/>
       <c r="H14" s="2">
         <v>2.9884389800626701</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="20">
         <f t="shared" si="1"/>
         <v>1.0000000027145843</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="2">
         <v>2.99951171875</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M14" s="15"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3013,28 +3082,28 @@
       <c r="B15" s="2">
         <v>3.0001220703125</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="20">
         <f t="shared" si="0"/>
         <v>-0.22629438553091683</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="2"/>
       <c r="H15" s="2">
         <v>2.99229265338835</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="20">
         <f t="shared" si="1"/>
         <v>0.99999999854983379</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="2">
         <v>2.999755859375</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M15" s="15"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3043,28 +3112,28 @@
       <c r="B16" s="2">
         <v>2.99981689453125</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="20">
         <f t="shared" si="0"/>
         <v>-4.4190225823081262</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="2"/>
       <c r="H16" s="2">
         <v>2.9948617689313699</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="20">
         <f t="shared" si="1"/>
         <v>0.99999989415323387</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="2">
         <v>2.9998779296875</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M16" s="15"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3073,28 +3142,28 @@
       <c r="B17" s="2">
         <v>2.9999694824218701</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="20">
         <f t="shared" si="0"/>
         <v>-0.22629438536975144</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="2"/>
       <c r="H17" s="2">
         <v>2.9965745124777698</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="20">
         <f t="shared" si="1"/>
         <v>1.0000001037129163</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="2">
         <v>2.99993896484375</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="20">
         <f t="shared" si="2"/>
         <v>0.99999999976906617</v>
       </c>
-      <c r="M17" s="15"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3103,28 +3172,28 @@
       <c r="B18" s="2">
         <v>3.00004577636718</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="20">
         <f t="shared" si="0"/>
         <v>-4.4190225862688184</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="2"/>
       <c r="H18" s="2">
         <v>2.9977163416524499</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="20">
         <f t="shared" si="1"/>
         <v>1.0000010363497858</v>
       </c>
-      <c r="J18" s="15"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="2">
         <v>2.9999694824218701</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="20">
         <f t="shared" si="2"/>
         <v>0.9999999997480723</v>
       </c>
-      <c r="M18" s="15"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -3133,28 +3202,28 @@
       <c r="B19" s="2">
         <v>3.0000076293945299</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="20">
         <f t="shared" si="0"/>
         <v>-0.69918032516590578</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="2"/>
       <c r="H19" s="2">
         <v>2.9984775617417698</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="20">
         <f t="shared" si="1"/>
         <v>0.99999815348562016</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="2">
         <v>2.99998474121093</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M19" s="15"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -3163,25 +3232,27 @@
       <c r="B20" s="2">
         <v>3.00002670288085</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="20">
         <f t="shared" si="0"/>
         <v>0.24376650453815701</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="2"/>
       <c r="H20" s="2">
         <v>2.9989850408280398</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="20">
         <f t="shared" si="1"/>
         <v>0.99999754410820041</v>
       </c>
-      <c r="J20" s="15"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="2">
         <v>2.99998474121093</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
+      <c r="L20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -3190,20 +3261,20 @@
       <c r="B21" s="2">
         <v>3.0000362396240199</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="20">
         <f t="shared" si="0"/>
         <v>0.40478514676715704</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="2"/>
       <c r="H21" s="2">
         <v>2.9993233596561502</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="20">
         <f t="shared" si="1"/>
         <v>1.0000118610484419</v>
       </c>
-      <c r="J21" s="15"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -3212,20 +3283,20 @@
       <c r="B22" s="2">
         <v>3.0000410079956001</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="20">
         <f t="shared" si="0"/>
         <v>0.4571669097733369</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2">
         <v>2.9995489080095901</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="20">
         <f t="shared" si="1"/>
         <v>0.99996339706318893</v>
       </c>
-      <c r="J22" s="15"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -3234,20 +3305,20 @@
       <c r="B23" s="2">
         <v>3.0000433921813898</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="20">
         <f t="shared" si="0"/>
         <v>0.47957653357514529</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="2"/>
       <c r="H23" s="2">
         <v>2.9996992685912698</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="20">
         <f t="shared" si="1"/>
         <v>1.0001011820285879</v>
       </c>
-      <c r="J23" s="15"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -3256,20 +3327,20 @@
       <c r="B24" s="2">
         <v>3.0000445842742902</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="20">
         <f t="shared" si="0"/>
         <v>0.49001704102542271</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="2"/>
       <c r="H24" s="2">
         <v>2.9997995183422601</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="20">
         <f t="shared" si="1"/>
         <v>0.99986815496535153</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -3278,20 +3349,20 @@
       <c r="B25" s="2">
         <v>3.00004518032073</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="20">
         <f t="shared" si="0"/>
         <v>0.49506355768237792</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="2"/>
       <c r="H25" s="2">
         <v>2.9998663423813001</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="20">
         <f t="shared" si="1"/>
         <v>0.99991196926219716</v>
       </c>
-      <c r="J25" s="15"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -3300,20 +3371,20 @@
       <c r="B26" s="2">
         <v>3.0000454783439601</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="20">
         <f t="shared" si="0"/>
         <v>0.49754524794599309</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="2"/>
       <c r="H26" s="2">
         <v>2.9999108896202702</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="20">
         <f t="shared" si="1"/>
         <v>0.98059256907777892</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -3322,20 +3393,20 @@
       <c r="B27" s="2">
         <v>3.0000456273555698</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="20">
         <f t="shared" si="0"/>
         <v>0.49877601237834607</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="2"/>
       <c r="H27" s="2">
         <v>2.9999401202681302</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="20">
         <f t="shared" si="1"/>
         <v>1.0109303807925465</v>
       </c>
-      <c r="J27" s="15"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -3344,20 +3415,20 @@
       <c r="B28" s="2">
         <v>3.0000457018613802</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="20">
         <f t="shared" si="0"/>
         <v>0.49938874786745413</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="2"/>
       <c r="H28" s="2">
         <v>2.9999599369244199</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="20">
         <f t="shared" si="1"/>
         <v>1.1430852480754834</v>
       </c>
-      <c r="J28" s="15"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -3366,20 +3437,20 @@
       <c r="B29" s="2">
         <v>3.0000457391142801</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="20">
         <f t="shared" si="0"/>
         <v>0.49969461116793767</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="2"/>
       <c r="H29" s="2">
         <v>2.9999746933148601</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="20">
         <f t="shared" si="1"/>
         <v>1.9121199147505814</v>
       </c>
-      <c r="J29" s="15"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -3388,20 +3459,20 @@
       <c r="B30" s="2">
         <v>3.0000457577407298</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="20">
         <f t="shared" si="0"/>
         <v>0.4998476463495159</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="2"/>
       <c r="H30" s="2">
         <v>2.9999894864330998</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="20">
         <f t="shared" si="1"/>
         <v>-1.8494243688435812</v>
       </c>
-      <c r="J30" s="15"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -3410,20 +3481,20 @@
       <c r="B31" s="2">
         <v>3.00004576705396</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="20">
         <f t="shared" si="0"/>
         <v>0.49992316866637843</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="2"/>
       <c r="H31" s="2">
         <v>2.99994663235125</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="20">
         <f t="shared" si="1"/>
         <v>-0.24397857638482395</v>
       </c>
-      <c r="J31" s="15"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -3432,20 +3503,20 @@
       <c r="B32" s="2">
         <v>3.0000457717105702</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="20">
         <f t="shared" si="0"/>
         <v>0.4999628987513573</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="2"/>
       <c r="H32" s="2">
         <v>2.9999640958743199</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="20">
         <f t="shared" si="1"/>
         <v>0.92537622280045162</v>
       </c>
-      <c r="J32" s="15"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -3454,20 +3525,20 @@
       <c r="B33" s="2">
         <v>3.0000457740388802</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="20">
         <f t="shared" si="0"/>
         <v>0.49997863697618095</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="2"/>
       <c r="H33" s="2">
         <v>2.9999751196829898</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="20">
         <f t="shared" si="1"/>
         <v>1.002068341397484</v>
       </c>
-      <c r="J33" s="15"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -3476,20 +3547,20 @@
       <c r="B34" s="2">
         <v>3.0000457752030298</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="20">
         <f t="shared" si="0"/>
         <v>0.49999504062202599</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="2"/>
       <c r="H34" s="2">
         <v>2.9999827718755299</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="20">
         <f t="shared" si="1"/>
         <v>7.0980722110260794</v>
       </c>
-      <c r="J34" s="15"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -3498,20 +3569,20 @@
       <c r="B35" s="2">
         <v>3.00004577578511</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="20">
         <f t="shared" si="0"/>
         <v>0.49997768427742934</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="2"/>
       <c r="H35" s="2">
         <v>2.9999987315932102</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="20">
         <f t="shared" si="1"/>
         <v>-2.9707238850225974</v>
       </c>
-      <c r="J35" s="15"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -3520,20 +3591,20 @@
       <c r="B36" s="2">
         <v>3.0000457760761399</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="20">
         <f t="shared" si="0"/>
         <v>0.50001516386899425</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="2"/>
       <c r="H36" s="2">
         <v>2.9970553909015201</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="20">
         <f t="shared" si="1"/>
         <v>-5.2318283802763384E-2</v>
       </c>
-      <c r="J36" s="15"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -3542,20 +3613,20 @@
       <c r="B37" s="2">
         <v>3.0000457762216599</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="20">
         <f t="shared" si="0"/>
         <v>0.49999880786526379</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="2"/>
       <c r="H37" s="2">
         <v>2.9980369272834499</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="20">
         <f t="shared" si="1"/>
         <v>0.99999921472637099</v>
       </c>
-      <c r="J37" s="15"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -3564,20 +3635,20 @@
       <c r="B38" s="2">
         <v>3.0000457762944199</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="20">
         <f t="shared" si="0"/>
         <v>0.50000245576970981</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="2"/>
       <c r="H38" s="2">
         <v>2.9986912844494502</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="20">
         <f t="shared" si="1"/>
         <v>1.0000049337576549</v>
       </c>
-      <c r="J38" s="15"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -3586,20 +3657,20 @@
       <c r="B39" s="2">
         <v>3.0000457763308002</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="20">
         <f t="shared" si="0"/>
         <v>0.49999359842799768</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="2"/>
       <c r="H39" s="2">
         <v>2.9991275244408699</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="20">
         <f t="shared" si="1"/>
         <v>0.99999012660449815</v>
       </c>
-      <c r="J39" s="15"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -3608,20 +3679,20 @@
       <c r="B40" s="2">
         <v>3.0000457763489901</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="20">
         <f t="shared" si="0"/>
         <v>0.50026840586618948</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="2"/>
       <c r="H40" s="2">
         <v>2.99941834828175</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="20">
         <f t="shared" si="1"/>
         <v>1.0000128836491173</v>
       </c>
-      <c r="J40" s="15"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -3630,20 +3701,20 @@
       <c r="B41" s="2">
         <v>3.0000457763580899</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="20">
         <f t="shared" si="0"/>
         <v>0.50002432656976881</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="2"/>
       <c r="H41" s="2">
         <v>2.9996122333164701</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="20">
         <f t="shared" si="1"/>
         <v>1.0000219015641338</v>
       </c>
-      <c r="J41" s="15"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -3652,20 +3723,20 @@
       <c r="B42" s="2">
         <v>3.00004577636264</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="20">
         <f t="shared" si="0"/>
         <v>0.4989263723112905</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="2"/>
       <c r="H42" s="2">
         <v>2.9997414919257301</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="20">
         <f t="shared" si="1"/>
         <v>0.99932984825036053</v>
       </c>
-      <c r="J42" s="15"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -3674,20 +3745,20 @@
       <c r="B43" s="2">
         <v>3.0000457763649102</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="20">
         <f t="shared" si="0"/>
         <v>0.50215178179489017</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="2"/>
       <c r="H43" s="2">
         <v>2.99982761648026</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="20">
         <f t="shared" si="1"/>
         <v>0.99903908411908426</v>
       </c>
-      <c r="J43" s="15"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -3696,20 +3767,20 @@
       <c r="B44" s="2">
         <v>3.0000457763660502</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="20">
         <f t="shared" si="0"/>
         <v>0.49123489473818011</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="2"/>
       <c r="H44" s="2">
         <v>2.9998850030092599</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="20">
         <f t="shared" si="1"/>
         <v>0.99568250372566314</v>
       </c>
-      <c r="J44" s="15"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -3718,20 +3789,20 @@
       <c r="B45" s="2">
         <v>3.0000457763666102</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="20">
         <f t="shared" si="0"/>
         <v>0.51784298285590424</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="2"/>
       <c r="H45" s="2">
         <v>2.9999231513462998</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="20">
         <f t="shared" si="1"/>
         <v>1.0084115621936725</v>
       </c>
-      <c r="J45" s="15"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -3740,20 +3811,20 @@
       <c r="B46" s="2">
         <v>3.0000457763669002</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="20">
         <f t="shared" si="0"/>
         <v>0.48238896348510885</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="2"/>
       <c r="H46" s="2">
         <v>2.99994881842979</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="20">
         <f t="shared" si="1"/>
         <v>0.94154022526143732</v>
       </c>
-      <c r="J46" s="15"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -3762,20 +3833,20 @@
       <c r="B47" s="2">
         <v>3.0000457763670401</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="20">
         <f t="shared" si="0"/>
         <v>0.49841272301498241</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="2"/>
       <c r="H47" s="2">
         <v>2.99996509316908</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="20">
         <f t="shared" si="1"/>
         <v>1.0625365286603703</v>
       </c>
-      <c r="J47" s="15"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -3784,20 +3855,20 @@
       <c r="B48" s="2">
         <v>3.0000457763671098</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="20">
         <f t="shared" si="0"/>
         <v>0.57961785500888008</v>
       </c>
-      <c r="D48" s="15"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="2"/>
       <c r="H48" s="2">
         <v>2.99997675586072</v>
       </c>
-      <c r="I48" s="15">
-        <f t="shared" si="1"/>
+      <c r="I48" s="20">
+        <f>LOG10(ABS(H49-J$2)/ABS(H48-J$2))/LOG10(ABS(H48-J$2)/ABS(H47-J$2))</f>
         <v>0</v>
       </c>
-      <c r="J48" s="15"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -3806,17 +3877,19 @@
       <c r="B49" s="2">
         <v>3.0000457763671502</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="20">
         <f t="shared" si="0"/>
         <v>0.24175830540976165</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="2"/>
       <c r="H49" s="2">
         <v>2.99997675586072</v>
       </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
+      <c r="I49" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -3825,11 +3898,11 @@
       <c r="B50" s="2">
         <v>3.00004577636716</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="20">
         <f t="shared" si="0"/>
         <v>1.0454538361051875</v>
       </c>
-      <c r="D50" s="15"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3842,11 +3915,11 @@
       <c r="B51" s="2">
         <v>3.0000457763671702</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="20">
         <f t="shared" si="0"/>
         <v>0.95652238813860524</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3859,11 +3932,11 @@
       <c r="B52" s="2">
         <v>3.00004577636718</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3876,11 +3949,11 @@
       <c r="B53" s="2">
         <v>3.00004577636718</v>
       </c>
-      <c r="C53" s="15" t="e">
+      <c r="C53" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3893,14 +3966,16 @@
       <c r="B54" s="2">
         <v>3.00004577636718</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="C54" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="16"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
+  <mergeCells count="126">
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
@@ -3969,6 +4044,21 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
@@ -3993,21 +4083,6 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C9:D9"/>
@@ -4025,10 +4100,6 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K1:K2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
@@ -4041,7 +4112,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4059,66 +4130,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="10">
+      <c r="M2" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4129,23 +4208,31 @@
       <c r="B3" s="2">
         <v>0.5</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17"/>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="17"/>
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="I3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="17"/>
       <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="L3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4154,35 +4241,35 @@
       <c r="B4" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="20">
         <f>LOG10(ABS(B5-D$2)/ABS(B4-D$2))/LOG10(ABS(B4-D$2)/ABS(B3-D$2))</f>
         <v>1</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="20">
         <f>LOG10(ABS(E5-G$2)/ABS(E4-G$2))/LOG10(ABS(E4-G$2)/ABS(E3-G$2))</f>
         <v>-1.7061430996611391</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="2">
         <v>0.38816551686574002</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="20">
         <f>LOG10(ABS(H5-J$2)/ABS(H4-J$2))/LOG10(ABS(H4-J$2)/ABS(H3-J$2))</f>
         <v>1.5209529924777578</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="2">
         <v>0.15018801364339601</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="20">
         <f>LOG10(ABS(K5-M$2)/ABS(K4-M$2))/LOG10(ABS(K4-M$2)/ABS(K3-M$2))</f>
         <v>2.2759713325120234</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -4191,35 +4278,35 @@
       <c r="B5" s="2">
         <v>0.125</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="20">
         <f>LOG10(ABS(B6-D$2)/ABS(B5-D$2))/LOG10(ABS(B5-D$2)/ABS(B4-D$2))</f>
         <v>1</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="2">
         <v>0.61295662837854903</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="20">
         <f t="shared" ref="F5:F14" si="0">LOG10(ABS(E6-G$2)/ABS(E5-G$2))/LOG10(ABS(E5-G$2)/ABS(E4-G$2))</f>
         <v>0.35548696611305114</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2">
         <v>9.2030345945663006E-2</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="20">
         <f t="shared" ref="I5:I10" si="1">LOG10(ABS(H6-J$2)/ABS(H5-J$2))/LOG10(ABS(H5-J$2)/ABS(H4-J$2))</f>
         <v>1.7563356752591011</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="2">
         <v>2.0076165148969999E-3</v>
       </c>
-      <c r="L5" s="15">
-        <f t="shared" ref="L5:L8" si="2">LOG10(ABS(K6-M$2)/ABS(K5-M$2))/LOG10(ABS(K5-M$2)/ABS(K4-M$2))</f>
+      <c r="L5" s="20">
+        <f t="shared" ref="L5:L6" si="2">LOG10(ABS(K6-M$2)/ABS(K5-M$2))/LOG10(ABS(K5-M$2)/ABS(K4-M$2))</f>
         <v>2.9221150958202324</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -4228,35 +4315,35 @@
       <c r="B6" s="2">
         <v>-6.25E-2</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="20">
         <f>LOG10(ABS(B7-D$2)/ABS(B6-D$2))/LOG10(ABS(B6-D$2)/ABS(B5-D$2))</f>
         <v>1</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="2">
         <v>0.402579402671492</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>2.6017298739611898</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2">
         <v>7.3463293261811996E-3</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="20">
         <f t="shared" si="1"/>
         <v>1.9485291293477536</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="2">
         <v>6.7107333999999999E-9</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="20">
         <f t="shared" si="2"/>
         <v>1.4293092617930736</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -4265,35 +4352,35 @@
       <c r="B7" s="2">
         <v>3.125E-2</v>
       </c>
-      <c r="C7" s="15">
-        <f t="shared" ref="C5:C54" si="3">LOG10(ABS(B8-D$2)/ABS(B7-D$2))/LOG10(ABS(B7-D$2)/ABS(B6-D$2))</f>
+      <c r="C7" s="20">
+        <f t="shared" ref="C7:C54" si="3">LOG10(ABS(B8-D$2)/ABS(B7-D$2))/LOG10(ABS(B7-D$2)/ABS(B6-D$2))</f>
         <v>1</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="2">
         <v>0.13484424247059101</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>1.1690625607810154</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="2">
         <v>5.3315920884800002E-5</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="20">
         <f t="shared" si="1"/>
         <v>1.9975480360091324</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="2">
         <v>-9.9999999999999998E-17</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="20">
         <f>LOG10(ABS(K8-M$2)/ABS(K7-M$2))/LOG10(ABS(K7-M$2)/ABS(K6-M$2))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -4302,35 +4389,34 @@
       <c r="B8" s="2">
         <v>-1.5625E-2</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="2">
         <v>3.7540954598882001E-2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
         <v>1.6718879635985457</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2">
         <v>2.8423347999999999E-9</v>
       </c>
-      <c r="I8" s="15" t="e">
+      <c r="I8" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="2">
         <v>9.9999999999999998E-17</v>
       </c>
-      <c r="L8" s="15" t="e">
-        <f>LOG10(ABS(K9-M$2)/ABS(K8-M$2))/LOG10(ABS(K8-M$2)/ABS(K7-M$2))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M8" s="15"/>
+      <c r="L8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -4339,27 +4425,27 @@
       <c r="B9" s="2">
         <v>7.8125E-3</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="2">
         <v>4.4265015837714004E-3</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>1.5514465348317774</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="15" t="e">
+      <c r="I9" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -4368,27 +4454,26 @@
       <c r="B10" s="2">
         <v>-3.90625E-3</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="2">
         <v>1.6055666190410001E-4</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>1.6353399839838192</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="15"/>
+      <c r="I10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -4397,19 +4482,19 @@
       <c r="B11" s="2">
         <v>1.953125E-3</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="2">
         <v>7.0799763370000002E-7</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>1.610814698145167</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4419,19 +4504,19 @@
       <c r="B12" s="2">
         <v>-9.765625E-4</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="2">
         <v>1.136586E-10</v>
       </c>
-      <c r="F12" s="15" t="e">
+      <c r="F12" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4441,19 +4526,19 @@
       <c r="B13" s="2">
         <v>4.8828125E-4</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="15" t="e">
+      <c r="F13" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4463,19 +4548,18 @@
       <c r="B14" s="2">
         <v>-2.44140625E-4</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="16"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4485,11 +4569,11 @@
       <c r="B15" s="2">
         <v>1.220703125E-4</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4501,11 +4585,11 @@
       <c r="B16" s="2">
         <v>-6.103515625E-5</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4517,11 +4601,11 @@
       <c r="B17" s="2">
         <v>3.0517578125E-5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4533,11 +4617,11 @@
       <c r="B18" s="2">
         <v>-1.52587890625E-5</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="20">
         <f t="shared" si="3"/>
         <v>0.99999999999054501</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4549,11 +4633,11 @@
       <c r="B19" s="2">
         <v>7.6293945313000004E-6</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="20">
         <f t="shared" si="3"/>
         <v>1.0000000000283649</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4566,15 +4650,15 @@
       <c r="B20" s="2">
         <v>-3.8146972655999998E-6</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="20">
         <f t="shared" si="3"/>
         <v>0.99999999998109013</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="L20" s="17"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -4583,11 +4667,11 @@
       <c r="B21" s="2">
         <v>1.9073486327999999E-6</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4599,11 +4683,11 @@
       <c r="B22" s="2">
         <v>-9.5367431639999996E-7</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4616,11 +4700,11 @@
       <c r="B23" s="2">
         <v>4.7683715819999998E-7</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4632,11 +4716,11 @@
       <c r="B24" s="2">
         <v>-2.3841857909999999E-7</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="20">
         <f t="shared" si="3"/>
         <v>0.9999999993948897</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4648,11 +4732,11 @@
       <c r="B25" s="2">
         <v>1.1920928960000001E-7</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="20">
         <f t="shared" si="3"/>
         <v>1.0000000006051102</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4664,11 +4748,11 @@
       <c r="B26" s="2">
         <v>-5.9604644800000003E-8</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4680,11 +4764,11 @@
       <c r="B27" s="2">
         <v>2.9802322400000001E-8</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4696,11 +4780,11 @@
       <c r="B28" s="2">
         <v>-1.4901161200000001E-8</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4712,11 +4796,11 @@
       <c r="B29" s="2">
         <v>7.4505806000000003E-9</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4728,11 +4812,11 @@
       <c r="B30" s="2">
         <v>-3.7252903000000002E-9</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="20">
         <f t="shared" si="3"/>
         <v>1.0000000387270507</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -4744,11 +4828,11 @@
       <c r="B31" s="2">
         <v>1.8626451000000001E-9</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="20">
         <f t="shared" si="3"/>
         <v>0.99999988381885374</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4760,11 +4844,11 @@
       <c r="B32" s="2">
         <v>-9.3132260000000005E-10</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="20">
         <f t="shared" si="3"/>
         <v>1.000000077454106</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4776,11 +4860,11 @@
       <c r="B33" s="2">
         <v>4.6566130000000002E-10</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="20">
         <f t="shared" si="3"/>
         <v>1.0000003098164258</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4792,11 +4876,11 @@
       <c r="B34" s="2">
         <v>-2.328306E-10</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="20">
         <f t="shared" si="3"/>
         <v>0.99999969018367019</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4808,11 +4892,11 @@
       <c r="B35" s="2">
         <v>1.164153E-10</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="20">
         <f t="shared" si="3"/>
         <v>0.99999876073469629</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -4824,11 +4908,11 @@
       <c r="B36" s="2">
         <v>-5.8207700000000002E-11</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="20">
         <f t="shared" si="3"/>
         <v>1.0000037178015833</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4840,11 +4924,11 @@
       <c r="B37" s="2">
         <v>2.9103800000000001E-11</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="20">
         <f t="shared" si="3"/>
         <v>0.99999752147447085</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4856,11 +4940,11 @@
       <c r="B38" s="2">
         <v>-1.4551900000000001E-11</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="20">
         <f t="shared" si="3"/>
         <v>0.99999008589885963</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -4872,11 +4956,11 @@
       <c r="B39" s="2">
         <v>7.2759999999999993E-12</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="20">
         <f t="shared" si="3"/>
         <v>1.0000099141994307</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -4888,11 +4972,11 @@
       <c r="B40" s="2">
         <v>-3.6379999999999996E-12</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4904,11 +4988,11 @@
       <c r="B41" s="2">
         <v>1.8189999999999998E-12</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4920,11 +5004,11 @@
       <c r="B42" s="2">
         <v>-9.0949999999999991E-13</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="20">
         <f t="shared" si="3"/>
         <v>1.0001586337943087</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4936,11 +5020,11 @@
       <c r="B43" s="2">
         <v>4.5470000000000002E-13</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="20">
         <f t="shared" si="3"/>
         <v>0.99952419153728489</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4952,11 +5036,11 @@
       <c r="B44" s="2">
         <v>-2.2740000000000002E-13</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="20">
         <f t="shared" si="3"/>
         <v>1.0003173508273049</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4968,11 +5052,11 @@
       <c r="B45" s="2">
         <v>1.1370000000000001E-13</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="20">
         <f t="shared" si="3"/>
         <v>1.001269419387566</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -4984,11 +5068,11 @@
       <c r="B46" s="2">
         <v>-5.6800000000000002E-14</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="20">
         <f t="shared" si="3"/>
         <v>0.99873218999503421</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -5000,11 +5084,11 @@
       <c r="B47" s="2">
         <v>2.8400000000000001E-14</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -5016,11 +5100,11 @@
       <c r="B48" s="2">
         <v>-1.42E-14</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D48" s="15"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -5032,11 +5116,11 @@
       <c r="B49" s="2">
         <v>7.1000000000000002E-15</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="20">
         <f t="shared" si="3"/>
         <v>0.97982211806236974</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -5048,11 +5132,11 @@
       <c r="B50" s="2">
         <v>-3.6000000000000001E-15</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="20">
         <f t="shared" si="3"/>
         <v>1.0205934134019476</v>
       </c>
-      <c r="D50" s="15"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -5064,11 +5148,11 @@
       <c r="B51" s="2">
         <v>1.8000000000000001E-15</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -5080,11 +5164,11 @@
       <c r="B52" s="2">
         <v>-9.0000000000000003E-16</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="20">
         <f t="shared" si="3"/>
         <v>1.1699250014423126</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -5096,11 +5180,11 @@
       <c r="B53" s="2">
         <v>3.9999999999999999E-16</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="20">
         <f t="shared" si="3"/>
         <v>0.85475564567572726</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -5112,18 +5196,16 @@
       <c r="B54" s="2">
         <v>-2E-16</v>
       </c>
-      <c r="C54" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="D54" s="15"/>
+      <c r="C54" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="16"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="L7:M7"/>
+  <mergeCells count="83">
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="I3:J3"/>
@@ -5144,6 +5226,17 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
@@ -5160,17 +5253,6 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
@@ -5180,11 +5262,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -5192,6 +5269,11 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -5202,11 +5284,8 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:J1"/>
